--- a/designDocuments/databaseDesignDocument/01_データベース設計書_v1.2.xlsx
+++ b/designDocuments/databaseDesignDocument/01_データベース設計書_v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshitakanta/Desktop/prodate/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F6590-F2BA-9047-8065-E2958360B004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15524519-77A3-0F49-BDF5-4F46EBAA5B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="173">
   <si>
     <t>No</t>
   </si>
@@ -876,10 +876,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>INT(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会員氏名</t>
     <rPh sb="0" eb="1">
       <t>カイインシメ</t>
@@ -894,14 +890,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>管理者メールアドレス</t>
     <rPh sb="0" eb="3">
       <t>カンr</t>
@@ -945,10 +933,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CHAR(7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -974,13 +958,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画像URL</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品説明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -992,28 +969,11 @@
     <t>status</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>INT(16)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>会員メールアドレス（Member_mail）</t>
-    <rPh sb="0" eb="2">
-      <t>カイイn</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1259,10 +1219,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>product_Explanation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>admin_mail</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1315,6 +1271,41 @@
   </si>
   <si>
     <t>INT(7)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(128)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>product_explanation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2832,6 +2823,36 @@
     <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2880,18 +2901,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2919,25 +2931,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2946,22 +2955,28 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2973,6 +2988,60 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2988,9 +3057,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3000,81 +3066,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3108,6 +3099,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3116,30 +3131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4927,21 +4918,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="179" t="s">
+      <c r="U3" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="180"/>
-      <c r="W3" s="181">
+      <c r="V3" s="165"/>
+      <c r="W3" s="189">
         <v>43969</v>
       </c>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="180"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="165"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5054,20 +5045,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="166"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="176"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -5085,82 +5076,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="185"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="163" t="s">
+      <c r="W8" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163" t="s">
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163" t="s">
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="178"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="188"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="183" t="s">
+      <c r="W9" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="184"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="183" t="s">
+      <c r="X9" s="191"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="185"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="192"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5186,15 +5177,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5220,15 +5211,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="188"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5254,15 +5245,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="196"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="198"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5361,106 +5352,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="192"/>
-      <c r="R16" s="192"/>
-      <c r="S16" s="192"/>
-      <c r="T16" s="192"/>
-      <c r="U16" s="192"/>
-      <c r="V16" s="192"/>
-      <c r="W16" s="192"/>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="192"/>
-      <c r="Z16" s="192"/>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="192"/>
-      <c r="AD16" s="192"/>
-      <c r="AE16" s="192"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="172"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
-      <c r="V17" s="192"/>
-      <c r="W17" s="192"/>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="192"/>
-      <c r="AA17" s="192"/>
-      <c r="AB17" s="192"/>
-      <c r="AC17" s="192"/>
-      <c r="AD17" s="192"/>
-      <c r="AE17" s="192"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="172"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="192"/>
-      <c r="AE18" s="192"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5603,408 +5594,408 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="179" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="179" t="s">
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="182"/>
-      <c r="S23" s="182"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="182"/>
-      <c r="V23" s="182"/>
-      <c r="W23" s="182"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="182"/>
-      <c r="AB23" s="180"/>
-      <c r="AC23" s="179" t="s">
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="180"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="165"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="193">
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="166">
         <v>43969</v>
       </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196" t="s">
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="197"/>
-      <c r="U24" s="197"/>
-      <c r="V24" s="197"/>
-      <c r="W24" s="197"/>
-      <c r="X24" s="197"/>
-      <c r="Y24" s="197"/>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="179" t="s">
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+      <c r="T24" s="170"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="170"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="170"/>
+      <c r="AA24" s="170"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="180"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="165"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="193">
+      <c r="B25" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="166">
         <v>43971</v>
       </c>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="197"/>
-      <c r="O25" s="197"/>
-      <c r="P25" s="197"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="197"/>
-      <c r="S25" s="197"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="197"/>
-      <c r="V25" s="197"/>
-      <c r="W25" s="197"/>
-      <c r="X25" s="197"/>
-      <c r="Y25" s="197"/>
-      <c r="Z25" s="197"/>
-      <c r="AA25" s="197"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="179" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD25" s="182"/>
-      <c r="AE25" s="180"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
+      <c r="Y25" s="170"/>
+      <c r="Z25" s="170"/>
+      <c r="AA25" s="170"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="163" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="165"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="179" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="193">
+      <c r="B26" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="166">
         <v>43972</v>
       </c>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="197"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="197"/>
-      <c r="W26" s="197"/>
-      <c r="X26" s="197"/>
-      <c r="Y26" s="197"/>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="198"/>
-      <c r="AC26" s="179" t="s">
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="169" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="170"/>
+      <c r="T26" s="170"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
+      <c r="Y26" s="170"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="180"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="165"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="197"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="197"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="198"/>
-      <c r="AC27" s="179"/>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="180"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="170"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="165"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="197"/>
-      <c r="T28" s="197"/>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="197"/>
-      <c r="X28" s="197"/>
-      <c r="Y28" s="197"/>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="198"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="180"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="170"/>
+      <c r="T28" s="170"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="170"/>
+      <c r="W28" s="170"/>
+      <c r="X28" s="170"/>
+      <c r="Y28" s="170"/>
+      <c r="Z28" s="170"/>
+      <c r="AA28" s="170"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="163"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="165"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="197"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="197"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="197"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="198"/>
-      <c r="AC29" s="179"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="170"/>
+      <c r="T29" s="170"/>
+      <c r="U29" s="170"/>
+      <c r="V29" s="170"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="170"/>
+      <c r="AA29" s="170"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="163"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="165"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="197"/>
-      <c r="O30" s="197"/>
-      <c r="P30" s="197"/>
-      <c r="Q30" s="197"/>
-      <c r="R30" s="197"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="197"/>
-      <c r="U30" s="197"/>
-      <c r="V30" s="197"/>
-      <c r="W30" s="197"/>
-      <c r="X30" s="197"/>
-      <c r="Y30" s="197"/>
-      <c r="Z30" s="197"/>
-      <c r="AA30" s="197"/>
-      <c r="AB30" s="198"/>
-      <c r="AC30" s="179"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="180"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="170"/>
+      <c r="S30" s="170"/>
+      <c r="T30" s="170"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="170"/>
+      <c r="W30" s="170"/>
+      <c r="X30" s="170"/>
+      <c r="Y30" s="170"/>
+      <c r="Z30" s="170"/>
+      <c r="AA30" s="170"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="163"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="165"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="197"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="197"/>
-      <c r="V31" s="197"/>
-      <c r="W31" s="197"/>
-      <c r="X31" s="197"/>
-      <c r="Y31" s="197"/>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
-      <c r="AB31" s="198"/>
-      <c r="AC31" s="179"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="180"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="163"/>
+      <c r="AD31" s="164"/>
+      <c r="AE31" s="165"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="197"/>
-      <c r="O32" s="197"/>
-      <c r="P32" s="197"/>
-      <c r="Q32" s="197"/>
-      <c r="R32" s="197"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="197"/>
-      <c r="U32" s="197"/>
-      <c r="V32" s="197"/>
-      <c r="W32" s="197"/>
-      <c r="X32" s="197"/>
-      <c r="Y32" s="197"/>
-      <c r="Z32" s="197"/>
-      <c r="AA32" s="197"/>
-      <c r="AB32" s="198"/>
-      <c r="AC32" s="179"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="180"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="170"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="170"/>
+      <c r="U32" s="170"/>
+      <c r="V32" s="170"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="170"/>
+      <c r="Y32" s="170"/>
+      <c r="Z32" s="170"/>
+      <c r="AA32" s="170"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="163"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="165"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="197"/>
-      <c r="O33" s="197"/>
-      <c r="P33" s="197"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="197"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="197"/>
-      <c r="Y33" s="197"/>
-      <c r="Z33" s="197"/>
-      <c r="AA33" s="197"/>
-      <c r="AB33" s="198"/>
-      <c r="AC33" s="179"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="180"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="170"/>
+      <c r="W33" s="170"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="170"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="163"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="165"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6043,51 +6034,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -6099,6 +6045,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6122,7 +6113,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6148,10 +6139,10 @@
       <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="200"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
@@ -6162,10 +6153,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="200"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
@@ -6176,10 +6167,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="200"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -6190,10 +6181,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="200"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
@@ -6202,10 +6193,10 @@
       <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="200"/>
+      <c r="B6" s="206"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -6244,10 +6235,10 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="206"/>
+      <c r="F9" s="204"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="68">
@@ -6257,13 +6248,13 @@
         <v>65</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="68">
@@ -6273,13 +6264,13 @@
         <v>66</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="200"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="68">
@@ -6289,13 +6280,13 @@
         <v>67</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="68">
@@ -6305,13 +6296,13 @@
         <v>77</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="200"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="68">
@@ -6321,13 +6312,13 @@
         <v>68</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
@@ -6337,29 +6328,29 @@
         <v>69</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -6821,6 +6812,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -6830,11 +6826,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6855,8 +6846,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6947,40 +6938,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7001,10 +6992,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7025,10 +7016,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -7045,14 +7036,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>80</v>
@@ -7065,14 +7056,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="72" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -7081,16 +7072,18 @@
       <c r="H13" s="82"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A14" s="78"/>
+      <c r="A14" s="78">
+        <v>4</v>
+      </c>
       <c r="B14" s="79" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D14" s="149"/>
       <c r="E14" s="72" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F14" s="80" t="s">
         <v>80</v>
@@ -7099,16 +7092,18 @@
       <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A15" s="78"/>
+      <c r="A15" s="78">
+        <v>5</v>
+      </c>
       <c r="B15" s="79" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C15" s="148" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D15" s="149"/>
       <c r="E15" s="72" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F15" s="80" t="s">
         <v>80</v>
@@ -7117,16 +7112,18 @@
       <c r="H15" s="82"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A16" s="78"/>
+      <c r="A16" s="78">
+        <v>6</v>
+      </c>
       <c r="B16" s="79" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C16" s="148" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D16" s="149"/>
       <c r="E16" s="80" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F16" s="80" t="s">
         <v>80</v>
@@ -7147,8 +7144,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -7157,8 +7154,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -7167,8 +7164,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -7177,8 +7174,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -7187,8 +7184,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -7197,8 +7194,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -7207,8 +7204,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -7217,8 +7214,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -7227,8 +7224,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -7237,8 +7234,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -7247,8 +7244,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -7257,8 +7254,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -7267,8 +7264,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -7300,10 +7297,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -7318,51 +7315,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -7395,15 +7392,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -7411,51 +7408,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="209"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="240"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7487,15 +7484,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -7503,110 +7500,71 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="208"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="230" t="s">
+      <c r="C50" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="216"/>
+      <c r="E50" s="217"/>
+      <c r="F50" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="232"/>
-      <c r="H50" s="207" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" s="208"/>
-      <c r="J50" s="209"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="216"/>
+      <c r="J50" s="217"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="221" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="223"/>
-      <c r="H51" s="207" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="208"/>
-      <c r="J51" s="209"/>
+      <c r="C51" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="216"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="207" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="209"/>
+      <c r="H51" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="216"/>
+      <c r="J51" s="217"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="C24:D24"/>
@@ -7623,6 +7581,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7639,7 +7636,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7731,36 +7728,36 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7781,10 +7778,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7803,14 +7800,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="217" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="218"/>
+        <v>97</v>
+      </c>
+      <c r="C11" s="242" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F11" s="72" t="s">
         <v>80</v>
@@ -7825,10 +7822,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
@@ -7845,14 +7842,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="80" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -7865,14 +7862,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="D14" s="149"/>
       <c r="E14" s="72" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
@@ -7883,16 +7880,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="148" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D15" s="149"/>
       <c r="E15" s="158" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="80"/>
+        <v>171</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>80</v>
+      </c>
       <c r="G15" s="81"/>
       <c r="H15" s="82"/>
     </row>
@@ -7901,10 +7900,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="148" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D16" s="149"/>
       <c r="E16" s="80"/>
@@ -7919,12 +7918,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="217" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="218"/>
+        <v>89</v>
+      </c>
+      <c r="C17" s="242" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="243"/>
       <c r="E17" s="72" t="s">
         <v>81</v>
       </c>
@@ -7933,7 +7932,7 @@
       </c>
       <c r="G17" s="81"/>
       <c r="H17" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
@@ -7943,24 +7942,26 @@
       <c r="B18" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="210" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="237"/>
       <c r="E18" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="80" t="s">
+        <v>80</v>
+      </c>
       <c r="G18" s="81"/>
       <c r="H18" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -7969,8 +7970,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -7979,8 +7980,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -7989,8 +7990,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -7999,8 +8000,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8009,8 +8010,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8019,8 +8020,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8029,8 +8030,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8039,8 +8040,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8049,8 +8050,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8059,8 +8060,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8069,8 +8070,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8102,10 +8103,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8120,51 +8121,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -8197,15 +8198,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="247" t="s">
         <v>14</v>
       </c>
@@ -8215,17 +8216,17 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="215" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="209"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="244" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I42" s="245"/>
       <c r="J42" s="246"/>
@@ -8233,17 +8234,17 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="207" t="s">
+      <c r="C43" s="225" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="209"/>
+      <c r="G43" s="217"/>
       <c r="H43" s="253" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I43" s="254"/>
       <c r="J43" s="254"/>
@@ -8251,11 +8252,11 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="249"/>
       <c r="I44" s="250"/>
       <c r="J44" s="250"/>
@@ -8263,11 +8264,11 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="249"/>
       <c r="I45" s="250"/>
       <c r="J45" s="250"/>
@@ -8275,11 +8276,11 @@
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="251"/>
       <c r="I46" s="252"/>
       <c r="J46" s="252"/>
@@ -8313,15 +8314,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -8329,71 +8330,117 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="240"/>
-      <c r="F50" s="230" t="s">
+      <c r="C50" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="226"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="232"/>
-      <c r="H50" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="239"/>
-      <c r="J50" s="240"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="226"/>
+      <c r="J50" s="227"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="239"/>
-      <c r="E51" s="240"/>
-      <c r="F51" s="221" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="223"/>
-      <c r="H51" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="239"/>
-      <c r="J51" s="240"/>
+      <c r="C51" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="226"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="209"/>
+      <c r="H51" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="226"/>
+      <c r="J51" s="227"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -8410,52 +8457,6 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8564,40 +8565,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -8618,10 +8619,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -8642,10 +8643,10 @@
       <c r="B11" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>82</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
@@ -8730,8 +8731,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -8740,8 +8741,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -8750,8 +8751,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -8760,8 +8761,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -8770,8 +8771,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8780,8 +8781,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8790,8 +8791,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8800,8 +8801,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8810,8 +8811,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8820,8 +8821,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8830,8 +8831,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8840,8 +8841,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8850,8 +8851,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8883,10 +8884,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8901,51 +8902,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -8978,15 +8979,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -8994,51 +8995,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="209"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="240"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9070,15 +9071,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9086,101 +9087,63 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="238" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="240"/>
-      <c r="F50" s="230" t="s">
+      <c r="C50" s="225" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="226"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="232"/>
-      <c r="H50" s="238" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" s="239"/>
-      <c r="J50" s="240"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="225" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="226"/>
+      <c r="J50" s="227"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C6:H6"/>
@@ -9197,6 +9160,44 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9213,7 +9214,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9305,40 +9306,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9359,10 +9360,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9383,10 +9384,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -9406,11 +9407,11 @@
         <v>85</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>80</v>
@@ -9473,8 +9474,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -9483,8 +9484,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -9493,8 +9494,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -9503,8 +9504,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -9513,8 +9514,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -9523,8 +9524,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -9533,8 +9534,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -9543,8 +9544,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -9553,8 +9554,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -9563,8 +9564,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -9573,8 +9574,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -9583,8 +9584,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -9593,8 +9594,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -9626,10 +9627,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -9644,51 +9645,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -9721,15 +9722,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9737,67 +9738,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238" t="s">
+      <c r="C43" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="239"/>
-      <c r="J43" s="240"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="226"/>
+      <c r="J43" s="227"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -9829,15 +9830,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9845,94 +9846,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="219"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -9949,6 +9911,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9965,7 +9966,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10057,40 +10058,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="C6" s="238" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10111,10 +10112,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10133,14 +10134,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="217" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="218"/>
+        <v>93</v>
+      </c>
+      <c r="C11" s="242" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="80" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F11" s="72" t="s">
         <v>80</v>
@@ -10158,7 +10159,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="80" t="s">
@@ -10169,7 +10170,7 @@
       </c>
       <c r="G12" s="81"/>
       <c r="H12" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -10180,18 +10181,18 @@
         <v>85</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="80" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="81"/>
       <c r="H13" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -10199,14 +10200,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D14" s="149"/>
       <c r="E14" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="80" t="s">
         <v>80</v>
@@ -10247,8 +10248,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -10257,8 +10258,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -10267,8 +10268,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -10277,8 +10278,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -10287,8 +10288,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -10297,8 +10298,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -10307,8 +10308,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -10317,8 +10318,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -10327,8 +10328,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -10337,8 +10338,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -10347,8 +10348,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -10357,8 +10358,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -10367,8 +10368,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -10400,10 +10401,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -10418,51 +10419,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -10495,15 +10496,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10511,67 +10512,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="239"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="226"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="238" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="239"/>
-      <c r="J42" s="240"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="226"/>
+      <c r="J42" s="227"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="208"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="238" t="s">
+      <c r="C43" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="216"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" s="208"/>
-      <c r="J43" s="209"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="216"/>
+      <c r="J43" s="217"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -10603,15 +10604,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -10619,94 +10620,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="219"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10723,6 +10685,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10739,7 +10740,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10831,40 +10832,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10885,10 +10886,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10907,12 +10908,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="217" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="218"/>
+        <v>89</v>
+      </c>
+      <c r="C11" s="242" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -10929,14 +10930,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D12" s="101"/>
       <c r="E12" s="158" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>80</v>
@@ -10949,14 +10950,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D13" s="142"/>
       <c r="E13" s="158" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -11007,8 +11008,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -11017,8 +11018,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -11027,8 +11028,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -11037,8 +11038,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -11047,8 +11048,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -11057,8 +11058,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -11067,8 +11068,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -11077,8 +11078,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -11087,8 +11088,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -11097,8 +11098,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -11107,8 +11108,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -11117,8 +11118,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -11127,8 +11128,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="84"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -11160,10 +11161,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -11178,51 +11179,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -11255,15 +11256,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -11271,59 +11272,59 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="215" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="207" t="s">
-        <v>156</v>
-      </c>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="215" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="240"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11355,15 +11356,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -11371,93 +11372,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="219"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -11474,6 +11437,44 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11542,10 +11543,10 @@
       <c r="K2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="193">
+      <c r="L2" s="166">
         <v>43971</v>
       </c>
-      <c r="M2" s="195"/>
+      <c r="M2" s="168"/>
       <c r="N2" s="159"/>
       <c r="O2" s="159"/>
     </row>
@@ -11567,8 +11568,8 @@
       <c r="K3" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="262"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="259"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="109" t="s">
@@ -11586,8 +11587,8 @@
       <c r="K4" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="261"/>
-      <c r="M4" s="262"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="259"/>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -11659,14 +11660,14 @@
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="122"/>
-      <c r="G9" s="263" t="s">
+      <c r="G9" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="265"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="262"/>
       <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1">
@@ -11689,7 +11690,7 @@
         <v>69</v>
       </c>
       <c r="K10" s="126" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L10" s="126" t="s">
         <v>67</v>
@@ -11698,17 +11699,17 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="263" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="258" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
+      <c r="C11" s="255" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="257"/>
       <c r="G11" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H11" s="126"/>
       <c r="I11" s="126"/>
@@ -11719,15 +11720,15 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="258" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="255" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="257"/>
       <c r="G12" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
@@ -11738,15 +11739,15 @@
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="258" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="255" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="257"/>
       <c r="G13" s="126" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H13" s="126"/>
       <c r="I13" s="126"/>
@@ -11757,15 +11758,15 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="256"/>
-      <c r="C14" s="258" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="255" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="257"/>
       <c r="G14" s="126" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H14" s="126"/>
       <c r="I14" s="126"/>
@@ -11776,15 +11777,15 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="258" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="260"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="255" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="257"/>
       <c r="G15" s="126" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H15" s="126"/>
       <c r="I15" s="126"/>
@@ -11795,19 +11796,19 @@
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="256"/>
-      <c r="C16" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="255" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="126"/>
       <c r="H16" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I16" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J16" s="126"/>
       <c r="K16" s="126"/>
@@ -11816,22 +11817,22 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="258" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="260"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="255" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="257"/>
       <c r="G17" s="126"/>
       <c r="H17" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I17" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J17" s="126" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K17" s="126"/>
       <c r="L17" s="126"/>
@@ -11839,20 +11840,20 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="258" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="260"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="255" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="257"/>
       <c r="G18" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H18" s="126"/>
       <c r="I18" s="126"/>
       <c r="J18" s="126" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K18" s="126"/>
       <c r="L18" s="126"/>
@@ -11860,36 +11861,36 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="258" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="260"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="255" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="256"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="257"/>
       <c r="G19" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H19" s="126"/>
       <c r="I19" s="126"/>
       <c r="J19" s="126"/>
       <c r="K19" s="126" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L19" s="126"/>
       <c r="M19" s="120"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="258" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="260"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="257"/>
       <c r="G20" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H20" s="126"/>
       <c r="I20" s="126"/>
@@ -11900,54 +11901,54 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="258" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="260"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="257"/>
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
       <c r="I21" s="126"/>
       <c r="J21" s="126"/>
       <c r="K21" s="126"/>
       <c r="L21" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M21" s="120"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="256"/>
-      <c r="C22" s="258" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="259"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="260"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="257"/>
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
       <c r="I22" s="126"/>
       <c r="J22" s="126"/>
       <c r="K22" s="126"/>
       <c r="L22" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M22" s="120"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="258" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="260"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="257"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I23" s="126"/>
       <c r="J23" s="126"/>
@@ -11957,16 +11958,16 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="258" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="259"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="260"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="255" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="126"/>
       <c r="H24" s="126" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I24" s="126"/>
       <c r="J24" s="126"/>
@@ -11976,16 +11977,16 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="258" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="260"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="255" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="257"/>
       <c r="G25" s="126"/>
       <c r="H25" s="126" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I25" s="126"/>
       <c r="J25" s="126"/>
@@ -11995,28 +11996,28 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="258" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="260"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="256"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="257"/>
       <c r="G26" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H26" s="126"/>
       <c r="I26" s="126"/>
       <c r="J26" s="126"/>
       <c r="K26" s="126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L26" s="126"/>
       <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="256"/>
+      <c r="B27" s="264"/>
       <c r="C27" s="127"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140"/>
@@ -12031,7 +12032,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="256"/>
+      <c r="B28" s="264"/>
       <c r="C28" s="127"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140"/>
@@ -12046,7 +12047,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="256"/>
+      <c r="B29" s="264"/>
       <c r="C29" s="127"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
@@ -12061,7 +12062,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="256"/>
+      <c r="B30" s="264"/>
       <c r="C30" s="127"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
@@ -12076,7 +12077,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="256"/>
+      <c r="B31" s="264"/>
       <c r="C31" s="127"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140"/>
@@ -12091,11 +12092,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="259"/>
-      <c r="F32" s="260"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="255"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="257"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126"/>
       <c r="I32" s="126"/>
@@ -12106,11 +12107,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="259"/>
-      <c r="F33" s="260"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="257"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126"/>
@@ -12121,11 +12122,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="118"/>
-      <c r="B34" s="256"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="259"/>
-      <c r="F34" s="260"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="257"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
@@ -12136,11 +12137,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="118"/>
-      <c r="B35" s="256"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
-      <c r="F35" s="260"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="257"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
       <c r="I35" s="126"/>
@@ -12151,11 +12152,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="118"/>
-      <c r="B36" s="257"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="260"/>
+      <c r="B36" s="265"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="257"/>
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
@@ -12196,16 +12197,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -12222,6 +12213,16 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12230,21 +12231,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E4BA36D546265442A08A19E41F1D1BDD" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2e8dd8e6999d741a1c3eb6ca27f596d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d868ab53af1b141f55385f9a789c4e3" ns2:_="">
     <xsd:import namespace="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
@@ -12376,24 +12362,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12409,4 +12393,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/designDocuments/databaseDesignDocument/01_データベース設計書_v1.2.xlsx
+++ b/designDocuments/databaseDesignDocument/01_データベース設計書_v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshitakanta/Desktop/prodate/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15524519-77A3-0F49-BDF5-4F46EBAA5B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F750E8-2D76-0545-AE10-2FB8A3793EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="174">
   <si>
     <t>No</t>
   </si>
@@ -1306,6 +1306,10 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Boolean</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2823,13 +2827,94 @@
     <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2850,86 +2935,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2949,10 +2959,46 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2967,10 +3013,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2979,93 +3067,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3099,6 +3103,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3122,15 +3135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3177,15 +3181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>341195</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75821</xdr:rowOff>
+      <xdr:colOff>170597</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>587612</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18956</xdr:rowOff>
+      <xdr:colOff>417014</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3200,8 +3204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="720299" y="7373582"/>
-          <a:ext cx="1952388" cy="1137314"/>
+          <a:off x="549701" y="7070298"/>
+          <a:ext cx="1952388" cy="1743881"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3227,27 +3231,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng"/>
             <a:t>会員</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・会員メールアドレス　</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>PK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・会員氏名</a:t>
+            <a:t>＊会員メールアドレス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3255,7 +3252,39 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・会員パスワード</a:t>
+            <a:t>＊会員氏名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊会員パスワード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊クレジットカード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊住所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊郵便番号</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3273,7 +3302,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1403445</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>758</xdr:rowOff>
+      <xdr:rowOff>151642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3289,7 +3318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6748818" y="7090011"/>
-          <a:ext cx="1952388" cy="1914478"/>
+          <a:ext cx="1952388" cy="2065362"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3315,16 +3344,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng"/>
             <a:t>商品</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・商品</a:t>
+            <a:t>＊商品</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3332,18 +3365,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>PK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・商品名</a:t>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3351,7 +3373,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・金額</a:t>
+            <a:t>＊商品名</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3359,7 +3381,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・画像</a:t>
+            <a:t>＊金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>０画像</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3370,7 +3400,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・商品説明</a:t>
+            <a:t>＊商品説明</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3378,7 +3408,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・購入状態</a:t>
+            <a:t>＊購入状態</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3386,28 +3416,16 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・管理者メールアドレス　</a:t>
+            <a:t>＊管理者メールアドレ</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>FK</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ジャンルコード　　　　　　</a:t>
+            <a:t>＊ジャンルコード</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>FK</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3424,7 +3442,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1555845</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>94775</xdr:rowOff>
+      <xdr:rowOff>151642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3440,7 +3458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3640920" y="6560023"/>
-          <a:ext cx="1952388" cy="832513"/>
+          <a:ext cx="1952388" cy="889380"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3466,24 +3484,32 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng"/>
             <a:t>カート</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・会員メールアドレス</a:t>
+            <a:t>＊会員メールアドレス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・商品</a:t>
+            <a:t>＊商品</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3548,16 +3574,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng"/>
             <a:t>購入明細</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・購入明細</a:t>
+            <a:t>＊購入明細</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3568,7 +3598,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・会員メールアドレス</a:t>
+            <a:t>＊会員メールアドレス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3576,7 +3606,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・商品</a:t>
+            <a:t>＊商品</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3587,7 +3617,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・購入日</a:t>
+            <a:t>＊購入日</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3648,16 +3678,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng"/>
             <a:t>ジャンル</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ジャンルコード</a:t>
+            <a:t>＊ジャンルコード</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3665,7 +3699,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ジャンル名</a:t>
+            <a:t>＊ジャンル名</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3730,16 +3764,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng"/>
             <a:t>管理者</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・管理者メールアドレス</a:t>
+            <a:t>＊管理者メールアドレス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3747,7 +3785,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・管理者氏名</a:t>
+            <a:t>＊管理者氏名</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3755,7 +3793,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・管理者パスワード</a:t>
+            <a:t>＊管理者パスワード</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3767,7 +3805,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>427251</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>758</xdr:rowOff>
+      <xdr:rowOff>151642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -3791,8 +3829,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7725012" y="9004489"/>
-          <a:ext cx="2275" cy="855260"/>
+          <a:off x="7725012" y="9155373"/>
+          <a:ext cx="2275" cy="704376"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3823,7 +3861,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1594513</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>67101</xdr:rowOff>
+      <xdr:rowOff>142543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3847,8 +3885,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5631976" y="8047250"/>
-          <a:ext cx="1116842" cy="815455"/>
+          <a:off x="5631976" y="8122692"/>
+          <a:ext cx="1116842" cy="740013"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3879,13 +3917,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1555845</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19713</xdr:rowOff>
+      <xdr:rowOff>48146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>379863</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>67101</xdr:rowOff>
+      <xdr:rowOff>142543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3903,8 +3941,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5593308" y="6976280"/>
-          <a:ext cx="1155510" cy="1070970"/>
+          <a:off x="5593308" y="7004713"/>
+          <a:ext cx="1155510" cy="1117979"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3933,9 +3971,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>587612</xdr:colOff>
+      <xdr:colOff>417014</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19713</xdr:rowOff>
+      <xdr:rowOff>48146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -3959,8 +3997,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2672687" y="6976280"/>
-          <a:ext cx="968233" cy="965959"/>
+          <a:off x="2502089" y="7004713"/>
+          <a:ext cx="1138831" cy="937526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3989,7 +4027,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>587612</xdr:colOff>
+      <xdr:colOff>417014</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>132687</xdr:rowOff>
     </xdr:from>
@@ -4015,8 +4053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2672687" y="7942239"/>
-          <a:ext cx="1006901" cy="920466"/>
+          <a:off x="2502089" y="7942239"/>
+          <a:ext cx="1177499" cy="920466"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4046,12 +4084,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619836</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>132687</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>492836</xdr:colOff>
+      <xdr:colOff>435970</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>60656</xdr:rowOff>
     </xdr:to>
@@ -4070,8 +4108,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4657299" y="8965821"/>
-          <a:ext cx="2204492" cy="2316328"/>
+          <a:off x="4657299" y="9060597"/>
+          <a:ext cx="2147626" cy="2221552"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4918,21 +4956,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="163" t="s">
+      <c r="U3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="189">
+      <c r="V3" s="180"/>
+      <c r="W3" s="181">
         <v>43969</v>
       </c>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="165"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="180"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5045,20 +5083,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="176"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="166"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -5076,82 +5114,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="185"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="173" t="s">
+      <c r="W8" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173" t="s">
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173" t="s">
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="188"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="178"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="190" t="s">
+      <c r="W9" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="190" t="s">
+      <c r="X9" s="184"/>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="192"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5177,15 +5215,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="194"/>
-      <c r="AE10" s="195"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5211,15 +5249,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="193"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="195"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5245,15 +5283,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="196"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="198"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5352,106 +5390,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="172"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="172"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="172"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="192"/>
+      <c r="S16" s="192"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="172"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="172"/>
-      <c r="Z17" s="172"/>
-      <c r="AA17" s="172"/>
-      <c r="AB17" s="172"/>
-      <c r="AC17" s="172"/>
-      <c r="AD17" s="172"/>
-      <c r="AE17" s="172"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="192"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
+      <c r="AC18" s="192"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="192"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5594,408 +5632,408 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="163" t="s">
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="163" t="s">
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="163" t="s">
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="182"/>
+      <c r="T23" s="182"/>
+      <c r="U23" s="182"/>
+      <c r="V23" s="182"/>
+      <c r="W23" s="182"/>
+      <c r="X23" s="182"/>
+      <c r="Y23" s="182"/>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="182"/>
+      <c r="AB23" s="180"/>
+      <c r="AC23" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="165"/>
+      <c r="AD23" s="182"/>
+      <c r="AE23" s="180"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166">
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="193">
         <v>43969</v>
       </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169" t="s">
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="163" t="s">
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="197"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="197"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="198"/>
+      <c r="AC24" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="165"/>
+      <c r="AD24" s="182"/>
+      <c r="AE24" s="180"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="166">
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="193">
         <v>43971</v>
       </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169" t="s">
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="163" t="s">
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="197"/>
+      <c r="Z25" s="197"/>
+      <c r="AA25" s="197"/>
+      <c r="AB25" s="198"/>
+      <c r="AC25" s="179" t="s">
         <v>135</v>
       </c>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="165"/>
+      <c r="AD25" s="182"/>
+      <c r="AE25" s="180"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="179" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="166">
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="193">
         <v>43972</v>
       </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169" t="s">
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="171"/>
-      <c r="AC26" s="163" t="s">
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="197"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="197"/>
+      <c r="X26" s="197"/>
+      <c r="Y26" s="197"/>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
+      <c r="AB26" s="198"/>
+      <c r="AC26" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="165"/>
+      <c r="AD26" s="182"/>
+      <c r="AE26" s="180"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="165"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="197"/>
+      <c r="P27" s="197"/>
+      <c r="Q27" s="197"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="197"/>
+      <c r="Y27" s="197"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
+      <c r="AB27" s="198"/>
+      <c r="AC27" s="179"/>
+      <c r="AD27" s="182"/>
+      <c r="AE27" s="180"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="165"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="197"/>
+      <c r="X28" s="197"/>
+      <c r="Y28" s="197"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="198"/>
+      <c r="AC28" s="179"/>
+      <c r="AD28" s="182"/>
+      <c r="AE28" s="180"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="197"/>
+      <c r="W29" s="197"/>
+      <c r="X29" s="197"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="197"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="182"/>
+      <c r="AE29" s="180"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="165"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197"/>
+      <c r="O30" s="197"/>
+      <c r="P30" s="197"/>
+      <c r="Q30" s="197"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
+      <c r="AB30" s="198"/>
+      <c r="AC30" s="179"/>
+      <c r="AD30" s="182"/>
+      <c r="AE30" s="180"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="164"/>
-      <c r="AE31" s="165"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="197"/>
+      <c r="W31" s="197"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="197"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="179"/>
+      <c r="AD31" s="182"/>
+      <c r="AE31" s="180"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="171"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="164"/>
-      <c r="AE32" s="165"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="197"/>
+      <c r="O32" s="197"/>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="197"/>
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197"/>
+      <c r="U32" s="197"/>
+      <c r="V32" s="197"/>
+      <c r="W32" s="197"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="197"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="197"/>
+      <c r="AB32" s="198"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="182"/>
+      <c r="AE32" s="180"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="171"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="165"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="197"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
+      <c r="Y33" s="197"/>
+      <c r="Z33" s="197"/>
+      <c r="AA33" s="197"/>
+      <c r="AB33" s="198"/>
+      <c r="AC33" s="179"/>
+      <c r="AD33" s="182"/>
+      <c r="AE33" s="180"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6034,6 +6072,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -6045,51 +6128,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6113,8 +6151,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="67" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -6139,10 +6177,10 @@
       <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="206"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
@@ -6153,10 +6191,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="206"/>
+      <c r="B3" s="200"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
@@ -6167,10 +6205,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="206"/>
+      <c r="B4" s="200"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -6181,10 +6219,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
@@ -6193,10 +6231,10 @@
       <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="206"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -6235,10 +6273,10 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="203" t="s">
+      <c r="E9" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="204"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="68">
@@ -6253,8 +6291,8 @@
       <c r="D10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="199"/>
-      <c r="F10" s="200"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="68">
@@ -6269,8 +6307,8 @@
       <c r="D11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="68">
@@ -6285,8 +6323,8 @@
       <c r="D12" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="68">
@@ -6301,8 +6339,8 @@
       <c r="D13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="199"/>
-      <c r="F13" s="200"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="68">
@@ -6317,8 +6355,8 @@
       <c r="D14" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
@@ -6333,24 +6371,24 @@
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -6812,11 +6850,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -6826,6 +6859,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6938,40 +6976,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -6992,10 +7030,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7016,10 +7054,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -7144,8 +7182,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -7154,8 +7192,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -7164,8 +7202,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -7174,8 +7212,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -7184,8 +7222,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -7194,8 +7232,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -7204,8 +7242,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -7214,8 +7252,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -7224,8 +7262,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -7234,8 +7272,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -7244,8 +7282,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -7254,8 +7292,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -7264,8 +7302,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -7297,10 +7335,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -7315,51 +7353,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -7392,15 +7430,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -7408,51 +7446,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="217"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="240"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7484,15 +7522,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -7500,71 +7538,110 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="216"/>
-      <c r="E50" s="217"/>
-      <c r="F50" s="218" t="s">
+      <c r="D50" s="208"/>
+      <c r="E50" s="209"/>
+      <c r="F50" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="219"/>
-      <c r="H50" s="215" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="I50" s="216"/>
-      <c r="J50" s="217"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="209"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="215" t="s">
+      <c r="C51" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="216"/>
-      <c r="E51" s="217"/>
-      <c r="F51" s="207" t="s">
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="209"/>
-      <c r="H51" s="215" t="s">
+      <c r="G51" s="223"/>
+      <c r="H51" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="I51" s="216"/>
-      <c r="J51" s="217"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="209"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="C24:D24"/>
@@ -7581,45 +7658,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7636,7 +7674,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7728,36 +7766,36 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7778,10 +7816,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7802,10 +7840,10 @@
       <c r="B11" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>168</v>
       </c>
@@ -7906,7 +7944,9 @@
         <v>102</v>
       </c>
       <c r="D16" s="149"/>
-      <c r="E16" s="80"/>
+      <c r="E16" s="80" t="s">
+        <v>173</v>
+      </c>
       <c r="F16" s="80" t="s">
         <v>80</v>
       </c>
@@ -7920,10 +7960,10 @@
       <c r="B17" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="242" t="s">
+      <c r="C17" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="243"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="72" t="s">
         <v>81</v>
       </c>
@@ -7942,10 +7982,10 @@
       <c r="B18" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="236" t="s">
+      <c r="C18" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="237"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="72" t="s">
         <v>82</v>
       </c>
@@ -7960,8 +8000,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -7970,8 +8010,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -7980,8 +8020,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -7990,8 +8030,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8000,8 +8040,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8010,8 +8050,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8020,8 +8060,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8030,8 +8070,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8040,8 +8080,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8050,8 +8090,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8060,8 +8100,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8070,8 +8110,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8103,10 +8143,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8121,51 +8161,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -8198,15 +8238,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="247" t="s">
         <v>14</v>
       </c>
@@ -8216,15 +8256,15 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="217"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="244" t="s">
         <v>147</v>
       </c>
@@ -8234,15 +8274,15 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225" t="s">
+      <c r="C43" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="215" t="s">
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="217"/>
+      <c r="G43" s="209"/>
       <c r="H43" s="253" t="s">
         <v>148</v>
       </c>
@@ -8252,11 +8292,11 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="249"/>
       <c r="I44" s="250"/>
       <c r="J44" s="250"/>
@@ -8264,11 +8304,11 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="249"/>
       <c r="I45" s="250"/>
       <c r="J45" s="250"/>
@@ -8276,11 +8316,11 @@
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="251"/>
       <c r="I46" s="252"/>
       <c r="J46" s="252"/>
@@ -8314,15 +8354,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -8330,117 +8370,71 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="226"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="218" t="s">
+      <c r="D50" s="239"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="219"/>
-      <c r="H50" s="225" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="I50" s="226"/>
-      <c r="J50" s="227"/>
+      <c r="I50" s="239"/>
+      <c r="J50" s="240"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="225" t="s">
+      <c r="C51" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="226"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="207" t="s">
+      <c r="D51" s="239"/>
+      <c r="E51" s="240"/>
+      <c r="F51" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="209"/>
-      <c r="H51" s="225" t="s">
+      <c r="G51" s="223"/>
+      <c r="H51" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="I51" s="226"/>
-      <c r="J51" s="227"/>
+      <c r="I51" s="239"/>
+      <c r="J51" s="240"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -8457,6 +8451,52 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8565,40 +8605,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -8619,10 +8659,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -8643,10 +8683,10 @@
       <c r="B11" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>82</v>
       </c>
@@ -8731,8 +8771,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -8741,8 +8781,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -8751,8 +8791,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -8761,8 +8801,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -8771,8 +8811,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8781,8 +8821,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8791,8 +8831,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8801,8 +8841,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8811,8 +8851,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8821,8 +8861,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8831,8 +8871,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8841,8 +8881,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8851,8 +8891,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8884,10 +8924,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8902,51 +8942,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -8979,15 +9019,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -8995,51 +9035,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="217"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="240"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9071,15 +9111,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9087,63 +9127,101 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="226"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="218" t="s">
+      <c r="D50" s="239"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="219"/>
-      <c r="H50" s="225" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="I50" s="226"/>
-      <c r="J50" s="227"/>
+      <c r="I50" s="239"/>
+      <c r="J50" s="240"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C6:H6"/>
@@ -9160,44 +9238,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9306,40 +9346,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9360,10 +9400,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9384,10 +9424,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -9474,8 +9514,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -9484,8 +9524,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -9494,8 +9534,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -9504,8 +9544,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -9514,8 +9554,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -9524,8 +9564,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -9534,8 +9574,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -9544,8 +9584,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -9554,8 +9594,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -9564,8 +9604,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -9574,8 +9614,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -9584,8 +9624,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -9594,8 +9634,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -9627,10 +9667,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -9645,51 +9685,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -9722,15 +9762,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9738,67 +9778,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="215" t="s">
+      <c r="G42" s="209"/>
+      <c r="H42" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225" t="s">
+      <c r="C43" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225" t="s">
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="227"/>
-      <c r="H43" s="225" t="s">
+      <c r="G43" s="240"/>
+      <c r="H43" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="226"/>
-      <c r="J43" s="227"/>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -9830,15 +9870,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9846,55 +9886,94 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="219"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -9911,45 +9990,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10058,40 +10098,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10112,10 +10152,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10136,10 +10176,10 @@
       <c r="B11" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="80" t="s">
         <v>168</v>
       </c>
@@ -10248,8 +10288,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -10258,8 +10298,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -10268,8 +10308,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -10278,8 +10318,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -10288,8 +10328,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -10298,8 +10338,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -10308,8 +10348,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -10318,8 +10358,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -10328,8 +10368,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -10338,8 +10378,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -10348,8 +10388,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -10358,8 +10398,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -10368,8 +10408,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -10401,10 +10441,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -10419,51 +10459,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -10496,15 +10536,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10512,67 +10552,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="226"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="239"/>
+      <c r="E42" s="240"/>
+      <c r="F42" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="225" t="s">
+      <c r="G42" s="209"/>
+      <c r="H42" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="I42" s="226"/>
-      <c r="J42" s="227"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="240"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="216"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="225" t="s">
+      <c r="D43" s="208"/>
+      <c r="E43" s="209"/>
+      <c r="F43" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="227"/>
-      <c r="H43" s="215" t="s">
+      <c r="G43" s="240"/>
+      <c r="H43" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="216"/>
-      <c r="J43" s="217"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -10604,15 +10644,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -10620,55 +10660,94 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="219"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10685,45 +10764,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10832,40 +10872,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10886,10 +10926,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10910,10 +10950,10 @@
       <c r="B11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -11008,8 +11048,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -11018,8 +11058,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -11028,8 +11068,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -11038,8 +11078,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -11048,8 +11088,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -11058,8 +11098,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -11068,8 +11108,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -11078,8 +11118,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -11088,8 +11128,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -11098,8 +11138,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -11108,8 +11148,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -11118,8 +11158,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -11128,8 +11168,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="84"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -11161,10 +11201,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -11179,51 +11219,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -11256,15 +11296,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -11272,59 +11312,59 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="215" t="s">
+      <c r="G42" s="209"/>
+      <c r="H42" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="240"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11356,15 +11396,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -11372,55 +11412,93 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="219"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -11437,44 +11515,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11543,10 +11583,10 @@
       <c r="K2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="193">
         <v>43971</v>
       </c>
-      <c r="M2" s="168"/>
+      <c r="M2" s="195"/>
       <c r="N2" s="159"/>
       <c r="O2" s="159"/>
     </row>
@@ -11568,8 +11608,8 @@
       <c r="K3" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="258"/>
-      <c r="M3" s="259"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="262"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="109" t="s">
@@ -11587,8 +11627,8 @@
       <c r="K4" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="258"/>
-      <c r="M4" s="259"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="262"/>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -11660,14 +11700,14 @@
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="122"/>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="262"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="264"/>
+      <c r="L9" s="265"/>
       <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1">
@@ -11699,15 +11739,15 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="255" t="s">
+      <c r="C11" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="257"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="126" t="s">
         <v>131</v>
       </c>
@@ -11720,13 +11760,13 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="255" t="s">
+      <c r="B12" s="256"/>
+      <c r="C12" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="257"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
       <c r="G12" s="126" t="s">
         <v>131</v>
       </c>
@@ -11739,13 +11779,13 @@
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="255" t="s">
+      <c r="B13" s="256"/>
+      <c r="C13" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="257"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
       <c r="G13" s="126" t="s">
         <v>123</v>
       </c>
@@ -11758,13 +11798,13 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="255" t="s">
+      <c r="B14" s="256"/>
+      <c r="C14" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="257"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
       <c r="G14" s="126" t="s">
         <v>124</v>
       </c>
@@ -11777,13 +11817,13 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="264"/>
-      <c r="C15" s="255" t="s">
+      <c r="B15" s="256"/>
+      <c r="C15" s="258" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="257"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
       <c r="G15" s="126" t="s">
         <v>125</v>
       </c>
@@ -11796,13 +11836,13 @@
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="255" t="s">
+      <c r="B16" s="256"/>
+      <c r="C16" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="126"/>
       <c r="H16" s="126" t="s">
         <v>131</v>
@@ -11817,13 +11857,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="255" t="s">
+      <c r="B17" s="256"/>
+      <c r="C17" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="257"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
       <c r="G17" s="126"/>
       <c r="H17" s="126" t="s">
         <v>131</v>
@@ -11840,13 +11880,13 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="255" t="s">
+      <c r="B18" s="256"/>
+      <c r="C18" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="260"/>
       <c r="G18" s="126" t="s">
         <v>131</v>
       </c>
@@ -11861,13 +11901,13 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="255" t="s">
+      <c r="B19" s="256"/>
+      <c r="C19" s="258" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="256"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="126" t="s">
         <v>131</v>
       </c>
@@ -11882,13 +11922,13 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="255" t="s">
+      <c r="B20" s="256"/>
+      <c r="C20" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
       <c r="G20" s="126" t="s">
         <v>131</v>
       </c>
@@ -11901,13 +11941,13 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="255" t="s">
+      <c r="B21" s="256"/>
+      <c r="C21" s="258" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
       <c r="I21" s="126"/>
@@ -11920,13 +11960,13 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="255" t="s">
+      <c r="B22" s="256"/>
+      <c r="C22" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="260"/>
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
       <c r="I22" s="126"/>
@@ -11939,13 +11979,13 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="264"/>
-      <c r="C23" s="255" t="s">
+      <c r="B23" s="256"/>
+      <c r="C23" s="258" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="260"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126" t="s">
         <v>123</v>
@@ -11958,13 +11998,13 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="264"/>
-      <c r="C24" s="255" t="s">
+      <c r="B24" s="256"/>
+      <c r="C24" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="260"/>
       <c r="G24" s="126"/>
       <c r="H24" s="126" t="s">
         <v>124</v>
@@ -11977,13 +12017,13 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="255" t="s">
+      <c r="B25" s="256"/>
+      <c r="C25" s="258" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="257"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="260"/>
       <c r="G25" s="126"/>
       <c r="H25" s="126" t="s">
         <v>125</v>
@@ -11996,13 +12036,13 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="264"/>
-      <c r="C26" s="255" t="s">
+      <c r="B26" s="256"/>
+      <c r="C26" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="257"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="260"/>
       <c r="G26" s="126" t="s">
         <v>131</v>
       </c>
@@ -12017,7 +12057,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="264"/>
+      <c r="B27" s="256"/>
       <c r="C27" s="127"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140"/>
@@ -12032,7 +12072,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="264"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="127"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140"/>
@@ -12047,7 +12087,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="264"/>
+      <c r="B29" s="256"/>
       <c r="C29" s="127"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
@@ -12062,7 +12102,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="264"/>
+      <c r="B30" s="256"/>
       <c r="C30" s="127"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
@@ -12077,7 +12117,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="264"/>
+      <c r="B31" s="256"/>
       <c r="C31" s="127"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140"/>
@@ -12092,11 +12132,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="255"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="257"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126"/>
       <c r="I32" s="126"/>
@@ -12107,11 +12147,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="264"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="257"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="260"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126"/>
@@ -12122,11 +12162,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="118"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="257"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="260"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
@@ -12137,11 +12177,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="118"/>
-      <c r="B35" s="264"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="257"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="260"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
       <c r="I35" s="126"/>
@@ -12152,11 +12192,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="118"/>
-      <c r="B36" s="265"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="257"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
@@ -12197,6 +12237,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -12213,16 +12263,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12231,6 +12271,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E4BA36D546265442A08A19E41F1D1BDD" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2e8dd8e6999d741a1c3eb6ca27f596d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d868ab53af1b141f55385f9a789c4e3" ns2:_="">
     <xsd:import namespace="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
@@ -12362,22 +12417,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12393,21 +12450,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>